--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="9525" activeTab="9"/>
+    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
     <t>3、需要持续开脑洞的地方：属性 爱好 人物背景 人物对话 可执行的行为 人物画像（外貌 衣着 喜欢的 讨厌的 擅长的 习惯 性格 标签 ）  后期有些NPC可能有立绘（极品NPC）</t>
   </si>
   <si>
-    <t>养成属性分3个阶段  学习 体育 艺术 性格 用最厉害的数值攻击对方  每种数值都有攻略上限 攻略上限受玩家和NPC自己属性的影响</t>
+    <t>养成属性分3个阶段  学习 体育 艺术 性格 用最厉害的数值攻击对方  每种数值都有攻略上限 攻略上限受玩家和NPC自己属性的影响 也就是说靠学习只能把妹子好感度提高到40 因为妹子对学习好的就那么点兴趣</t>
   </si>
   <si>
     <t>背景设计成大四 玩家浑浑噩噩过了3年 玩家要补之前挂掉的课 身材 交际 都不好</t>
@@ -536,24 +536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,9 +565,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,10 +582,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,8 +603,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,17 +635,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,14 +664,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -674,31 +674,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,151 +836,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,21 +865,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -907,17 +892,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +942,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -954,17 +965,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,16 +985,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,112 +1006,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1767,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
   <si>
     <t>人属性</t>
   </si>
@@ -164,6 +164,9 @@
     <t>精力-10，金钱-10，心情+10</t>
   </si>
   <si>
+    <t>（有几率碰到商店 弹出购买界面）</t>
+  </si>
+  <si>
     <t>图书馆学习</t>
   </si>
   <si>
@@ -200,6 +203,21 @@
     <t>精力-15，心情+10</t>
   </si>
   <si>
+    <t>练习乐器</t>
+  </si>
+  <si>
+    <t>精力-30，艺术+15，心情-3</t>
+  </si>
+  <si>
+    <t>打篮球</t>
+  </si>
+  <si>
+    <t>精力-30，体育+15，心情-3</t>
+  </si>
+  <si>
+    <t>学习的收益可以改成成长型的 比如一开始只能做基础题 后面做附加题（前提是你很厉害，就像打怪升级一样</t>
+  </si>
+  <si>
     <t>长期事件？ 排练艺术节 参加机器人大赛 参加校篮球队 备考托福 组队参加ACM集训 CET4 CET6 备战运动会 学习乐器等可以增加自持（自持是后期最重要的属性，让人可以勇敢拒绝喜欢的人而不降低心情）</t>
   </si>
   <si>
@@ -212,12 +230,18 @@
     <t>12点断电了就不能干别的了</t>
   </si>
   <si>
-    <t>还有一种可能是每种行动的获得量由投入精力的多少决定</t>
+    <t>还有一种可能是每种行动的获得量由投入精力的多少决定（该不该有高价值的东西）</t>
   </si>
   <si>
     <t>瞒着学校谈恋爱（如果是模拟高中可行 大学可能不需要瞒着？）</t>
   </si>
   <si>
+    <t>数值循环等价换算公式</t>
+  </si>
+  <si>
+    <t>后期的怪的成长性用那个曲线：</t>
+  </si>
+  <si>
     <t>醒来阶段</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
   </si>
   <si>
     <t>小目标如何定（必须要让玩家尽快产生成就感 3分钟内留住玩家（比如开学来个摸底考试，然后成绩提高了在意的人的好感度）</t>
+  </si>
+  <si>
+    <t>设计一个剧情来解锁新内容 （胖虎约你打球解锁体育 父亲给你报班解锁艺术</t>
   </si>
   <si>
     <t>成长曲线：</t>
@@ -500,12 +527,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,21 +557,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -552,7 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,9 +584,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,21 +603,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,17 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,9 +637,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,7 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,127 +707,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,37 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,22 +911,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,11 +942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +968,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,16 +1024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,119 +1042,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1166,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1487,146 +1535,146 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50" style="4" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50" style="7" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="48.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="66" customHeight="1" spans="2:2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" ht="40.5" spans="1:2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" ht="27" spans="2:2">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" ht="27" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1642,7 +1690,7 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1657,22 +1705,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1680,80 +1728,80 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1765,17 +1813,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1834,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1847,16 +1897,19 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1864,88 +1917,126 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9">
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" ht="38" customHeight="1" spans="7:7">
+      <c r="G13" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1968,23 +2059,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2010,32 +2101,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2057,45 +2148,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2201,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2120,37 +2211,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2176,71 +2267,71 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2252,22 +2343,27 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2289,22 +2385,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="引导" sheetId="8" r:id="rId8"/>
     <sheet name="数值" sheetId="9" r:id="rId9"/>
     <sheet name="需要确定的事" sheetId="10" r:id="rId10"/>
+    <sheet name="脑洞" sheetId="11" r:id="rId11"/>
+    <sheet name="素材" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
   <si>
     <t>人属性</t>
   </si>
@@ -521,15 +523,30 @@
   <si>
     <t>模拟考 地下城堡的战斗</t>
   </si>
+  <si>
+    <t>我们上学时经常会碰到这种情况：明天随堂小考的时候才想起来没复习，或者检查作业的时候才发现忘了写作业，想办法将这个效果做出来</t>
+  </si>
+  <si>
+    <t>举例：玩家在周一到周五这段时间，随机触发一些事件（下面请玩家同学把岳阳楼记背一遍）玩家如果有闹钟之类的道具，或者自制力属性高，就能过，也可以直接进战斗，战斗的时候boss有先攻效果等</t>
+  </si>
+  <si>
+    <t>场景素材：https://www.aigei.com/view/12459.html?page=2</t>
+  </si>
+  <si>
+    <t>人物素材</t>
+  </si>
+  <si>
+    <t>https://www.aigei.com/view/12135.html#items</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -562,91 +579,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,10 +595,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,10 +640,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,6 +698,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -713,19 +730,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,163 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,11 +924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +956,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -953,6 +983,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,33 +1013,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,16 +1041,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,119 +1059,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,12 +1186,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1535,146 +1546,146 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="50" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="18.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50" style="5" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="66" customHeight="1" spans="2:2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" ht="40.5" spans="1:2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" ht="27" spans="2:2">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" ht="27" spans="2:2">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1810,12 +1821,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1953,10 +2021,10 @@
       <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -1995,7 +2063,7 @@
       </c>
     </row>
     <row r="13" ht="38" customHeight="1" spans="7:7">
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>63</v>
       </c>
     </row>

--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="3" activeTab="11"/>
+    <workbookView windowWidth="27810" windowHeight="9525" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="需要确定的事" sheetId="10" r:id="rId10"/>
     <sheet name="脑洞" sheetId="11" r:id="rId11"/>
     <sheet name="素材" sheetId="12" r:id="rId12"/>
+    <sheet name="日历" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -544,9 +545,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -580,15 +581,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,7 +626,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,6 +670,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -683,37 +715,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -730,37 +731,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,145 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,17 +925,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,35 +958,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,6 +998,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1029,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,16 +1042,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,115 +1060,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1853,7 +1854,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1873,6 +1874,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="9525" firstSheet="1" activeTab="12"/>
+    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
   <si>
     <t>人属性</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>好感大于90</t>
+  </si>
+  <si>
+    <t>亲密度达到一定程度才能加微信，才能解锁邀请事宜 一开始只有班长副班长</t>
   </si>
   <si>
     <t>战斗形式可能是地下城堡 可能是mmo arpg</t>
@@ -581,13 +584,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -596,7 +592,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,6 +644,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -633,16 +661,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,7 +698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,45 +706,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,187 +734,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,39 +925,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -969,6 +939,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,22 +997,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,16 +1045,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,115 +1063,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,22 +1720,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1740,80 +1743,80 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1835,12 +1838,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1862,15 +1865,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1884,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2283,15 +2286,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2327,6 +2331,11 @@
       </c>
       <c r="C4" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2352,71 +2361,71 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2438,17 +2447,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2470,22 +2479,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27810" windowHeight="9525" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="脑洞" sheetId="11" r:id="rId11"/>
     <sheet name="素材" sheetId="12" r:id="rId12"/>
     <sheet name="日历" sheetId="13" r:id="rId13"/>
+    <sheet name="性格模块" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="168">
   <si>
     <t>人属性</t>
   </si>
@@ -542,16 +543,55 @@
   <si>
     <t>https://www.aigei.com/view/12135.html#items</t>
   </si>
+  <si>
+    <t>目前可以参考以下几种类型设定性格，类比原神按照不同体型设计不同动作（成男，成女，少男，少女，男孩，女孩）同一体型的动作是一样的</t>
+  </si>
+  <si>
+    <t>我们游戏的同一性格，触发某个条件（邀请主角，对主角生气，表示开心，表达感谢）的对话是一样的。</t>
+  </si>
+  <si>
+    <t>抛砖引玉：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温柔腼腆，善解人意女仆型 </t>
+  </si>
+  <si>
+    <t>清纯可爱，蹦蹦跳跳萝莉型</t>
+  </si>
+  <si>
+    <t>刁蛮任性大小姐型</t>
+  </si>
+  <si>
+    <t>冰块脸，刀子嘴，气场逼人御姐型</t>
+  </si>
+  <si>
+    <t>喜欢运动，脸颊永远挂满汗水的元气少女型</t>
+  </si>
+  <si>
+    <t>另外，需设定一个通用对话（性格类型太多，文案压力大，某些可以先用通用对话，后续更新该性格的特殊对话</t>
+  </si>
+  <si>
+    <t>举例：</t>
+  </si>
+  <si>
+    <t>性格可能还影响属性 比如急躁 心情容易降低 但效率高</t>
+  </si>
+  <si>
+    <t>卡片池（比如牵手 讲笑话 摸头 ）可以解锁互动选项 可以刷碎片 升级 可以做成抽奖 看广告 每次行动的时候随机从已有卡片抽取行为卡</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -583,26 +623,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,25 +661,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +684,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,22 +700,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,43 +758,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -734,187 +774,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +965,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -947,22 +1037,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,41 +1059,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1033,10 +1073,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,16 +1085,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,16 +1103,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,97 +1121,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,6 +1293,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="B58ADC8EA9E682C91BA0270E90CA57A5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="1981200"/>
+          <a:ext cx="9848850" cy="5534025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="A6DE0CA24D9A84956D28AC03356CB9DD"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="7686675"/>
+          <a:ext cx="9696450" cy="7153275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1858,7 +1979,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1895,6 +2016,87 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2288,7 +2490,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/NPCDemo/Assets/Resources/Documents/文档.xlsx
+++ b/NPCDemo/Assets/Resources/Documents/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="9525" firstSheet="2" activeTab="13"/>
+    <workbookView windowWidth="22890" windowHeight="10005" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -599,6 +599,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,6 +631,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -631,9 +653,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,51 +707,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,40 +744,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,13 +758,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -774,43 +774,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,139 +930,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,6 +978,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -993,16 +1008,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,30 +1060,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1073,162 +1073,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1665,152 +1668,152 @@
   <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50" style="5" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="18.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="66" customHeight="1" spans="2:2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" ht="40.5" spans="1:2">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" ht="27" spans="2:2">
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" ht="27" spans="2:2">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1845,7 +1848,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1916,7 +1919,7 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1979,7 +1982,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1993,11 +1996,14 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.aigei.com/view/12135.html#items"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2024,8 +2030,8 @@
   <sheetPr/>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2234,19 +2240,19 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -2285,7 +2291,7 @@
       </c>
     </row>
     <row r="13" ht="38" customHeight="1" spans="7:7">
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2341,8 +2347,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2685,7 +2691,7 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>127</v>
       </c>
     </row>
